--- a/data/outputs/OR_altmetric/30.xlsx
+++ b/data/outputs/OR_altmetric/30.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE220"/>
+  <dimension ref="A1:CF220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,11 @@
       <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>citeulike</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
         </is>
       </c>
     </row>
@@ -1011,6 +1016,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1252,6 +1260,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1509,6 +1520,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1758,6 +1772,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2005,6 +2022,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2244,6 +2264,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2489,6 +2512,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2746,6 +2772,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2997,6 +3026,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3236,6 +3268,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3483,6 +3518,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3726,6 +3764,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3963,6 +4004,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4216,6 +4260,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4465,6 +4512,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4710,6 +4760,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4967,6 +5020,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5220,6 +5276,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5469,6 +5528,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5720,6 +5782,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5963,6 +6028,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6222,6 +6290,9 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6461,6 +6532,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6702,6 +6776,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6947,6 +7024,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7204,6 +7284,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7453,6 +7536,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7710,6 +7796,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7963,6 +8052,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8221,6 +8313,9 @@
       </c>
       <c r="CE31" t="n">
         <v>0</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="32">
@@ -8463,6 +8558,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8716,6 +8814,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8965,6 +9066,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9222,6 +9326,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9469,6 +9576,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9712,6 +9822,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9969,6 +10082,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10214,6 +10330,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10463,6 +10582,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10720,6 +10842,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10977,6 +11102,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11224,6 +11352,9 @@
         <v>0</v>
       </c>
       <c r="CE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11463,6 +11594,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11712,6 +11846,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11959,6 +12096,9 @@
         <v>0</v>
       </c>
       <c r="CE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12200,6 +12340,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12455,6 +12598,9 @@
         <v>0</v>
       </c>
       <c r="CE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12698,6 +12844,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12939,6 +13088,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13188,6 +13340,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13437,6 +13592,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13690,6 +13848,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13937,6 +14098,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14180,6 +14344,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14421,6 +14588,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14666,6 +14836,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14915,6 +15088,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15168,6 +15344,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15417,6 +15596,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15668,6 +15850,9 @@
         <v>0</v>
       </c>
       <c r="CE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15913,6 +16098,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16154,6 +16342,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16405,6 +16596,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16658,6 +16852,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16909,6 +17106,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17158,6 +17358,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17407,6 +17610,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17656,6 +17862,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17913,6 +18122,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18168,6 +18380,9 @@
         <v>0</v>
       </c>
       <c r="CE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18411,6 +18626,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18666,6 +18884,9 @@
         <v>0</v>
       </c>
       <c r="CE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18909,6 +19130,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19162,6 +19386,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19419,6 +19646,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19666,6 +19896,9 @@
         <v>0</v>
       </c>
       <c r="CE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19909,6 +20142,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20162,6 +20398,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20419,6 +20658,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20676,6 +20918,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20923,6 +21168,9 @@
         <v>0</v>
       </c>
       <c r="CE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21168,6 +21416,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21409,6 +21660,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21658,6 +21912,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21907,6 +22164,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22164,6 +22424,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22413,6 +22676,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22662,6 +22928,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22911,6 +23180,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23164,6 +23436,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23421,6 +23696,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23666,6 +23944,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23915,6 +24196,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24172,6 +24456,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24429,6 +24716,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24682,6 +24972,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24927,6 +25220,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25172,6 +25468,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25421,6 +25720,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25670,6 +25972,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25919,6 +26224,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26168,6 +26476,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26425,6 +26736,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26670,6 +26984,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26917,6 +27234,9 @@
         <v>0</v>
       </c>
       <c r="CE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27160,6 +27480,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27407,6 +27730,9 @@
         <v>0</v>
       </c>
       <c r="CE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27650,6 +27976,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27907,6 +28236,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28164,6 +28496,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28413,6 +28748,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28672,6 +29010,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28917,6 +29258,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29170,6 +29514,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29425,6 +29772,9 @@
         <v>0</v>
       </c>
       <c r="CE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29672,6 +30022,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29923,6 +30276,9 @@
         <v>0</v>
       </c>
       <c r="CE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30166,6 +30522,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30415,6 +30774,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30672,6 +31034,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30921,6 +31286,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -31174,6 +31542,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31427,6 +31798,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31684,6 +32058,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31933,6 +32310,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -32182,6 +32562,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32439,6 +32822,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32700,6 +33086,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32943,6 +33332,9 @@
         <v>0</v>
       </c>
       <c r="CE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33186,6 +33578,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -33431,6 +33826,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -33680,6 +34078,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33937,6 +34338,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -34186,6 +34590,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -34429,6 +34836,9 @@
         <v>0</v>
       </c>
       <c r="CE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34672,6 +35082,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34921,6 +35334,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -35166,6 +35582,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -35425,6 +35844,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -35670,6 +36092,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -35919,6 +36344,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -36172,6 +36600,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -36423,6 +36854,9 @@
         <v>0</v>
       </c>
       <c r="CE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36666,6 +37100,9 @@
       <c r="CE145" t="n">
         <v>0</v>
       </c>
+      <c r="CF145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -36907,6 +37344,9 @@
       <c r="CE146" t="n">
         <v>0</v>
       </c>
+      <c r="CF146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -37156,6 +37596,9 @@
       <c r="CE147" t="n">
         <v>0</v>
       </c>
+      <c r="CF147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -37405,6 +37848,9 @@
       <c r="CE148" t="n">
         <v>0</v>
       </c>
+      <c r="CF148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -37662,6 +38108,9 @@
       <c r="CE149" t="n">
         <v>0</v>
       </c>
+      <c r="CF149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -37907,6 +38356,9 @@
       <c r="CE150" t="n">
         <v>0</v>
       </c>
+      <c r="CF150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -38156,6 +38608,9 @@
       <c r="CE151" t="n">
         <v>0</v>
       </c>
+      <c r="CF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -38409,6 +38864,9 @@
       <c r="CE152" t="n">
         <v>0</v>
       </c>
+      <c r="CF152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -38666,6 +39124,9 @@
       <c r="CE153" t="n">
         <v>0</v>
       </c>
+      <c r="CF153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -38915,6 +39376,9 @@
       <c r="CE154" t="n">
         <v>0</v>
       </c>
+      <c r="CF154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -39162,6 +39626,9 @@
         <v>0</v>
       </c>
       <c r="CE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39405,6 +39872,9 @@
       <c r="CE156" t="n">
         <v>0</v>
       </c>
+      <c r="CF156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -39662,6 +40132,9 @@
       <c r="CE157" t="n">
         <v>0</v>
       </c>
+      <c r="CF157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -39911,6 +40384,9 @@
       <c r="CE158" t="n">
         <v>0</v>
       </c>
+      <c r="CF158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -40168,6 +40644,9 @@
       <c r="CE159" t="n">
         <v>0</v>
       </c>
+      <c r="CF159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -40417,6 +40896,9 @@
       <c r="CE160" t="n">
         <v>0</v>
       </c>
+      <c r="CF160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -40678,6 +41160,9 @@
       <c r="CE161" t="n">
         <v>0</v>
       </c>
+      <c r="CF161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -40931,6 +41416,9 @@
       <c r="CE162" t="n">
         <v>0</v>
       </c>
+      <c r="CF162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -41188,6 +41676,9 @@
       <c r="CE163" t="n">
         <v>0</v>
       </c>
+      <c r="CF163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -41435,6 +41926,9 @@
         <v>0</v>
       </c>
       <c r="CE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41662,6 +42156,9 @@
       <c r="CE165" t="n">
         <v>0</v>
       </c>
+      <c r="CF165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -41935,6 +42432,9 @@
       <c r="CE166" t="n">
         <v>0</v>
       </c>
+      <c r="CF166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -42202,6 +42702,9 @@
         <v>0</v>
       </c>
       <c r="CE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42461,6 +42964,9 @@
       <c r="CE168" t="n">
         <v>0</v>
       </c>
+      <c r="CF168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -42726,6 +43232,9 @@
       <c r="CE169" t="n">
         <v>0</v>
       </c>
+      <c r="CF169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -42999,6 +43508,9 @@
       <c r="CE170" t="n">
         <v>0</v>
       </c>
+      <c r="CF170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -43264,6 +43776,9 @@
       <c r="CE171" t="n">
         <v>0</v>
       </c>
+      <c r="CF171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -43537,6 +44052,9 @@
       <c r="CE172" t="n">
         <v>0</v>
       </c>
+      <c r="CF172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -43812,6 +44330,9 @@
       <c r="CE173" t="n">
         <v>0</v>
       </c>
+      <c r="CF173" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -44077,6 +44598,9 @@
       <c r="CE174" t="n">
         <v>0</v>
       </c>
+      <c r="CF174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -44350,6 +44874,9 @@
       <c r="CE175" t="n">
         <v>0</v>
       </c>
+      <c r="CF175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -44613,6 +45140,9 @@
         <v>0</v>
       </c>
       <c r="CE176" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44872,6 +45402,9 @@
       <c r="CE177" t="n">
         <v>0</v>
       </c>
+      <c r="CF177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -45113,6 +45646,9 @@
       <c r="CE178" t="n">
         <v>0</v>
       </c>
+      <c r="CF178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -45358,6 +45894,9 @@
       <c r="CE179" t="n">
         <v>0</v>
       </c>
+      <c r="CF179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -45615,6 +46154,9 @@
       <c r="CE180" t="n">
         <v>0</v>
       </c>
+      <c r="CF180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -45864,6 +46406,9 @@
       <c r="CE181" t="n">
         <v>0</v>
       </c>
+      <c r="CF181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -46113,6 +46658,9 @@
       <c r="CE182" t="n">
         <v>0</v>
       </c>
+      <c r="CF182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -46368,6 +46916,9 @@
         <v>0</v>
       </c>
       <c r="CE183" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46611,6 +47162,9 @@
       <c r="CE184" t="n">
         <v>0</v>
       </c>
+      <c r="CF184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -46868,6 +47422,9 @@
       <c r="CE185" t="n">
         <v>0</v>
       </c>
+      <c r="CF185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -47117,6 +47674,9 @@
       <c r="CE186" t="n">
         <v>0</v>
       </c>
+      <c r="CF186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -47366,6 +47926,9 @@
       <c r="CE187" t="n">
         <v>0</v>
       </c>
+      <c r="CF187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -47615,6 +48178,9 @@
       <c r="CE188" t="n">
         <v>0</v>
       </c>
+      <c r="CF188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -47872,6 +48438,9 @@
       <c r="CE189" t="n">
         <v>0</v>
       </c>
+      <c r="CF189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -48129,6 +48698,9 @@
       <c r="CE190" t="n">
         <v>0</v>
       </c>
+      <c r="CF190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -48386,6 +48958,9 @@
       <c r="CE191" t="n">
         <v>0</v>
       </c>
+      <c r="CF191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -48631,6 +49206,9 @@
       <c r="CE192" t="n">
         <v>0</v>
       </c>
+      <c r="CF192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -48884,6 +49462,9 @@
       <c r="CE193" t="n">
         <v>0</v>
       </c>
+      <c r="CF193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -49129,6 +49710,9 @@
       <c r="CE194" t="n">
         <v>0</v>
       </c>
+      <c r="CF194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -49380,6 +49964,9 @@
         <v>0</v>
       </c>
       <c r="CE195" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49623,6 +50210,9 @@
       <c r="CE196" t="n">
         <v>0</v>
       </c>
+      <c r="CF196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -49880,6 +50470,9 @@
       <c r="CE197" t="n">
         <v>0</v>
       </c>
+      <c r="CF197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -50133,6 +50726,9 @@
       <c r="CE198" t="n">
         <v>0</v>
       </c>
+      <c r="CF198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -50378,6 +50974,9 @@
       <c r="CE199" t="n">
         <v>0</v>
       </c>
+      <c r="CF199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -50627,6 +51226,9 @@
       <c r="CE200" t="n">
         <v>0</v>
       </c>
+      <c r="CF200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -50886,6 +51488,9 @@
       <c r="CE201" t="n">
         <v>0</v>
       </c>
+      <c r="CF201" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -51139,6 +51744,9 @@
       <c r="CE202" t="n">
         <v>0</v>
       </c>
+      <c r="CF202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -51396,6 +52004,9 @@
       <c r="CE203" t="n">
         <v>0</v>
       </c>
+      <c r="CF203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -51645,6 +52256,9 @@
       <c r="CE204" t="n">
         <v>0</v>
       </c>
+      <c r="CF204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -51902,6 +52516,9 @@
       <c r="CE205" t="n">
         <v>0</v>
       </c>
+      <c r="CF205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -52151,6 +52768,9 @@
       <c r="CE206" t="n">
         <v>0</v>
       </c>
+      <c r="CF206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -52408,6 +53028,9 @@
       <c r="CE207" t="n">
         <v>0</v>
       </c>
+      <c r="CF207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -52657,6 +53280,9 @@
       <c r="CE208" t="n">
         <v>0</v>
       </c>
+      <c r="CF208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -52906,6 +53532,9 @@
       <c r="CE209" t="n">
         <v>0</v>
       </c>
+      <c r="CF209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -53155,6 +53784,9 @@
       <c r="CE210" t="n">
         <v>0</v>
       </c>
+      <c r="CF210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -53404,6 +54036,9 @@
       <c r="CE211" t="n">
         <v>0</v>
       </c>
+      <c r="CF211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -53653,6 +54288,9 @@
       <c r="CE212" t="n">
         <v>0</v>
       </c>
+      <c r="CF212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -53908,6 +54546,9 @@
         <v>0</v>
       </c>
       <c r="CE213" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54151,6 +54792,9 @@
       <c r="CE214" t="n">
         <v>0</v>
       </c>
+      <c r="CF214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -54390,6 +55034,9 @@
         <v>0</v>
       </c>
       <c r="CE215" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54623,6 +55270,9 @@
       <c r="CE216" t="n">
         <v>0</v>
       </c>
+      <c r="CF216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -54872,6 +55522,9 @@
       <c r="CE217" t="n">
         <v>0</v>
       </c>
+      <c r="CF217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -55129,6 +55782,9 @@
       <c r="CE218" t="n">
         <v>0</v>
       </c>
+      <c r="CF218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -55388,6 +56044,9 @@
       <c r="CE219" t="n">
         <v>0</v>
       </c>
+      <c r="CF219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -55641,6 +56300,9 @@
       <c r="CE220" t="n">
         <v>0</v>
       </c>
+      <c r="CF220" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
